--- a/config/itech-aurum/forms/app/referral_confirmation.xlsx
+++ b/config/itech-aurum/forms/app/referral_confirmation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-63\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C622573-FAA3-4920-8721-54D583CA883C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11CEA4C-C53A-4BD3-836B-C4BB022CF47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15825" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>type</t>
   </si>
@@ -293,7 +293,7 @@
     <t>Please explain why the patient was not traced.</t>
   </si>
   <si>
-    <t>comments_2</t>
+    <t>selected(${trace}, 'yes')</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -372,12 +372,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -459,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -522,7 +516,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -908,13 +901,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1463,7 +1456,7 @@
       <c r="G21" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="36" t="s">
         <v>86</v>
       </c>
       <c r="I21" s="36"/>
@@ -1472,17 +1465,21 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="34" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="36"/>
+        <v>59</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>84</v>
+      </c>
       <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
@@ -1491,16 +1488,16 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="34" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="36" t="s">
@@ -1517,18 +1514,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
@@ -1536,29 +1531,10 @@
       <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/config/itech-aurum/forms/app/referral_confirmation.xlsx
+++ b/config/itech-aurum/forms/app/referral_confirmation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-63\itech-aurum\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11CEA4C-C53A-4BD3-836B-C4BB022CF47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33950C3C-AE37-483C-ACBE-320C150964C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15825" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>type</t>
   </si>
@@ -303,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -374,6 +374,12 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -453,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -491,8 +497,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -519,6 +523,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,22 +916,22 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="30"/>
-    <col min="2" max="2" width="19.5" style="30"/>
-    <col min="3" max="3" width="45.5" style="30"/>
-    <col min="4" max="4" width="38.125" style="30"/>
-    <col min="5" max="5" width="9.5" style="30"/>
-    <col min="6" max="7" width="11.75" style="30"/>
-    <col min="8" max="8" width="34.75" style="30"/>
-    <col min="9" max="10" width="11.75" style="30"/>
-    <col min="11" max="11" width="27.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="1025" width="11.75" style="30"/>
-    <col min="1026" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="20.75" style="28"/>
+    <col min="2" max="2" width="19.5" style="28"/>
+    <col min="3" max="3" width="45.5" style="28"/>
+    <col min="4" max="4" width="38.125" style="28"/>
+    <col min="5" max="5" width="9.5" style="28"/>
+    <col min="6" max="7" width="11.75" style="28"/>
+    <col min="8" max="8" width="34.75" style="28"/>
+    <col min="9" max="10" width="11.75" style="28"/>
+    <col min="11" max="11" width="27.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="11.75" style="28"/>
+    <col min="1026" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -982,21 +991,21 @@
       <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="19" t="s">
@@ -1075,7 +1084,9 @@
       <c r="E6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="18" t="s">
@@ -1086,7 +1097,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>1</v>
@@ -1105,7 +1116,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>31</v>
@@ -1122,26 +1133,26 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" s="38" customFormat="1" ht="15">
       <c r="A9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="19" t="s">
@@ -1163,47 +1174,47 @@
         <v>35</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="28" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="26" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="4"/>
@@ -1223,23 +1234,23 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="28" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="26" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="4"/>
@@ -1259,25 +1270,25 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="28" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="26" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="4"/>
@@ -1296,60 +1307,60 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:26" s="38" customFormat="1" ht="15">
+      <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="28" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="28" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="26" t="s">
         <v>49</v>
       </c>
       <c r="L17" s="4"/>
@@ -1379,7 +1390,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="29"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1397,144 +1408,144 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="86.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/config/itech-aurum/forms/app/referral_confirmation.xlsx
+++ b/config/itech-aurum/forms/app/referral_confirmation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-81\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33950C3C-AE37-483C-ACBE-320C150964C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A44817-209C-4F7F-A4F1-70D39FB8BB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>selected(${trace}, 'yes')</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
   </si>
 </sst>
 </file>
@@ -303,22 +306,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -351,11 +342,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -376,13 +362,20 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +424,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -459,75 +458,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,642 +891,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="28"/>
-    <col min="2" max="2" width="19.5" style="28"/>
-    <col min="3" max="3" width="45.5" style="28"/>
-    <col min="4" max="4" width="38.125" style="28"/>
-    <col min="5" max="5" width="9.5" style="28"/>
-    <col min="6" max="7" width="11.75" style="28"/>
-    <col min="8" max="8" width="34.75" style="28"/>
-    <col min="9" max="10" width="11.75" style="28"/>
-    <col min="11" max="11" width="27.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="1025" width="11.75" style="28"/>
-    <col min="1026" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="20.75" style="26"/>
+    <col min="2" max="2" width="19.5" style="26"/>
+    <col min="3" max="3" width="45.5" style="26"/>
+    <col min="4" max="4" width="38.125" style="26"/>
+    <col min="5" max="5" width="11.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.75" style="26"/>
+    <col min="8" max="8" width="34.75" style="26"/>
+    <col min="9" max="10" width="11.75" style="26"/>
+    <col min="11" max="11" width="27.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="11.75" style="26"/>
+    <col min="1026" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" s="29" customFormat="1" ht="15">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="L1" s="28" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="16" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:26" s="38" customFormat="1" ht="15">
-      <c r="A9" s="19" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="26" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="26" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="26" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" s="38" customFormat="1" ht="15">
-      <c r="A16" s="31" t="s">
+      <c r="L15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="L16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="26" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" ht="86.25">
-      <c r="A19" s="32" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="1:26" ht="85.5">
+      <c r="A19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1570,36 +1542,36 @@
     <col min="4" max="1025" width="11.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1628,94 +1600,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="5">
         <v>43008</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
